--- a/ProcessedData/conf_rbf_SVM_video_5.xlsx
+++ b/ProcessedData/conf_rbf_SVM_video_5.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657252990050325</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1463303142642875</v>
+        <v>0.3649958439320747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008451637071729882</v>
+        <v>0.3692788570628926</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.391476127305712</v>
+        <v>0.3364154028264703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5196535275848537</v>
+        <v>0.5360478320753487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.582525107682635</v>
+        <v>0.1275367650981811</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1567424783506546</v>
+        <v>0.2657254869313248</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1463297857389163</v>
+        <v>0.36499595316216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065153</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4869769986956896</v>
+        <v>0.1310236759936071</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5144804894488871</v>
+        <v>0.3643722154542762</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1826556539909324</v>
+        <v>0.504604108552117</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1656116353487658</v>
+        <v>0.261990325998959</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1537472497567866</v>
+        <v>0.3667884235512619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01023838889840956</v>
+        <v>0.3712212504497789</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1687199980483246</v>
+        <v>0.4644357757356262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2413018623888756</v>
+        <v>0.2842823004449846</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2335081643094299</v>
+        <v>0.2512819238193894</v>
       </c>
       <c r="E7" t="n">
         <v>37</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.075551559392178</v>
+        <v>0.162360706340869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08285983833339244</v>
+        <v>0.6518875468640927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6913213616113639</v>
+        <v>0.1857517467950383</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1548935771062406</v>
+        <v>0.2455477999555762</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2038153910943473</v>
+        <v>0.3551227559403831</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04768644531178789</v>
+        <v>0.3993294441040405</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1570386590607068</v>
+        <v>0.2748040621787532</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1223962256881677</v>
+        <v>0.3689924602409079</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03513837908510954</v>
+        <v>0.3562034775803388</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1556164534817587</v>
+        <v>0.2680483967476142</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1401872904987256</v>
+        <v>0.3658033791374368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01416954802405289</v>
+        <v>0.3661482241149488</v>
       </c>
       <c r="E11" t="n">
         <v>37</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1651864982957432</v>
+        <v>0.2645946823164516</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1465190455336264</v>
+        <v>0.3681028850534278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01815591137603219</v>
+        <v>0.3673024326301206</v>
       </c>
       <c r="E13" t="n">
         <v>37</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1764080170575258</v>
+        <v>0.1597455193407832</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4662778976008686</v>
+        <v>0.283269494799563</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3967367883210206</v>
+        <v>0.5569849858596538</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E15" t="n">
         <v>37</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312758</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1463297857390204</v>
+        <v>0.3649959531621731</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008452261481704285</v>
+        <v>0.3692785599065506</v>
       </c>
       <c r="E16" t="n">
         <v>37</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.15674247835073</v>
+        <v>0.2657254869282005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1463297857476762</v>
+        <v>0.3649959531603772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008452261471454491</v>
+        <v>0.3692785599114223</v>
       </c>
       <c r="E17" t="n">
         <v>37</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1562375619018232</v>
+        <v>0.2646649608394421</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1494875600077017</v>
+        <v>0.3641549291394183</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004126697799992377</v>
+        <v>0.3711801100211395</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1567424860636402</v>
+        <v>0.2606933692345545</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1604468869964293</v>
+        <v>0.362071614448552</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008218643462146043</v>
+        <v>0.3772350163168933</v>
       </c>
       <c r="E19" t="n">
         <v>37</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2857554915634516</v>
+        <v>0.2377999096537404</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.180181354379508</v>
+        <v>0.3981401510039095</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07741684216127466</v>
+        <v>0.3640599393423501</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.573857478195736</v>
+        <v>0.02893056001143107</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.104665004771225</v>
+        <v>0.4708600133890334</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04419584604429232</v>
+        <v>0.5002094265995356</v>
       </c>
       <c r="E21" t="n">
         <v>37</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1567431009896904</v>
+        <v>0.2657254082404363</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1463297868263604</v>
+        <v>0.3649961845631167</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008452992434271429</v>
+        <v>0.3692784071964469</v>
       </c>
       <c r="E22" t="n">
         <v>37</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1567550414389799</v>
+        <v>0.2657239065985766</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1463297867836499</v>
+        <v>0.3650006265097964</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00846703473211979</v>
+        <v>0.3692754668916266</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1567424783507536</v>
+        <v>0.2657254869312792</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621775</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008452261481723303</v>
+        <v>0.3692785599065433</v>
       </c>
       <c r="E25" t="n">
         <v>37</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1889273665636763</v>
+        <v>0.2550533498746893</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1654110609360065</v>
+        <v>0.3731920724152607</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02432291406344338</v>
+        <v>0.3717545777100499</v>
       </c>
       <c r="E26" t="n">
         <v>37</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1567231678050944</v>
+        <v>0.2657106003510275</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1463785248195734</v>
+        <v>0.3649789526171738</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008373287636688488</v>
+        <v>0.3693104470317984</v>
       </c>
       <c r="E27" t="n">
         <v>37</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E28" t="n">
         <v>38</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2653006889258177</v>
+        <v>0.2805096683614808</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.05263896001057915</v>
+        <v>0.4115575549982184</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1725427071667039</v>
+        <v>0.3079327766403007</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1567424783809739</v>
+        <v>0.2657254869276123</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1463297857386332</v>
+        <v>0.3649959531734963</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00845226151770169</v>
+        <v>0.3692785598988914</v>
       </c>
       <c r="E30" t="n">
         <v>38</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1581538522119129</v>
+        <v>0.1426072845105389</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5341995755269091</v>
+        <v>0.2682439549749159</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4602129734453244</v>
+        <v>0.5891487605145455</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E32" t="n">
         <v>38</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1567424783507489</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621756</v>
       </c>
       <c r="D33" t="n">
-        <v>0.008452261481717729</v>
+        <v>0.3692785599065443</v>
       </c>
       <c r="E33" t="n">
         <v>38</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1567100655559919</v>
+        <v>0.265620682948959</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1466359810272367</v>
+        <v>0.3649206511681643</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008052606956979794</v>
+        <v>0.3694586658828768</v>
       </c>
       <c r="E34" t="n">
         <v>38</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.220283276332155</v>
+        <v>0.3634219795774712</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03267530241682774</v>
+        <v>0.2909422689890955</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.08141716544955091</v>
+        <v>0.3456357514334333</v>
       </c>
       <c r="E35" t="n">
         <v>38</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657245501922645</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1463324202104401</v>
+        <v>0.3649954085797535</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008449148463942348</v>
+        <v>0.3692800412279818</v>
       </c>
       <c r="E36" t="n">
         <v>38</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1563069416415853</v>
+        <v>0.2561803102253126</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1731939741874225</v>
+        <v>0.3592347479937543</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.02388503525506998</v>
+        <v>0.384584941780933</v>
       </c>
       <c r="E37" t="n">
         <v>38</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1567431213220067</v>
+        <v>0.2657254060194475</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.146329785870893</v>
+        <v>0.364996192262925</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008453017158421816</v>
+        <v>0.3692784017176275</v>
       </c>
       <c r="E38" t="n">
         <v>38</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1567213485791618</v>
+        <v>0.2408874804552722</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2207940557008828</v>
+        <v>0.3475581370382993</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.07959671735221453</v>
+        <v>0.4115543825064287</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.156742289265954</v>
+        <v>0.2648984450824745</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1486547710620912</v>
+        <v>0.3645149323683917</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005704091107049136</v>
+        <v>0.3705866225491343</v>
       </c>
       <c r="E40" t="n">
         <v>38</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1558353749617309</v>
+        <v>0.2660147891095967</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1458380773206691</v>
+        <v>0.3647648144306221</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0079902997982048</v>
+        <v>0.369220396459781</v>
       </c>
       <c r="E41" t="n">
         <v>38</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.7714670399230583</v>
+        <v>0.03044760572974324</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.103090782163753</v>
+        <v>0.1345442292507014</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.211660154799031</v>
+        <v>0.8350081650195554</v>
       </c>
       <c r="E42" t="n">
         <v>38</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E43" t="n">
         <v>38</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.185738597054607</v>
+        <v>0.09463639244627525</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.7376033551116385</v>
+        <v>0.2171552325457841</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7033873082738389</v>
+        <v>0.6882083750079405</v>
       </c>
       <c r="E44" t="n">
         <v>38</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1278398276818773</v>
+        <v>0.2370993106923136</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2397954614708765</v>
+        <v>0.3278394415853998</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1573211589859219</v>
+        <v>0.4350612477222867</v>
       </c>
       <c r="E45" t="n">
         <v>38</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1447170704652381</v>
+        <v>0.2610605263771503</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1636396009266122</v>
+        <v>0.3580140781198354</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.02071067810974056</v>
+        <v>0.3809253955030144</v>
       </c>
       <c r="E46" t="n">
         <v>38</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869288413</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1463297857458673</v>
+        <v>0.3649959531607579</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008452261473613698</v>
+        <v>0.3692785599104006</v>
       </c>
       <c r="E47" t="n">
         <v>38</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E48" t="n">
         <v>38</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1567428084583224</v>
+        <v>0.2656876265678344</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1464361474326032</v>
+        <v>0.3649741042977002</v>
       </c>
       <c r="D49" t="n">
-        <v>0.008327046034564191</v>
+        <v>0.3693382691344654</v>
       </c>
       <c r="E49" t="n">
         <v>38</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E50" t="n">
         <v>38</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1568312597893023</v>
+        <v>0.2655713523854283</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1467318309506094</v>
+        <v>0.3649456182549283</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00808032314616252</v>
+        <v>0.3694830293596432</v>
       </c>
       <c r="E51" t="n">
         <v>38</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1570293650158586</v>
+        <v>0.2656902872752575</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1463272649986488</v>
+        <v>0.3651029727014971</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008791434161800494</v>
+        <v>0.3692067400232455</v>
       </c>
       <c r="E52" t="n">
         <v>38</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1567424838178507</v>
+        <v>0.2657254862350172</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1463297857635162</v>
+        <v>0.3649959551909717</v>
       </c>
       <c r="D53" t="n">
-        <v>0.008452267882528407</v>
+        <v>0.3692785585740112</v>
       </c>
       <c r="E53" t="n">
         <v>38</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.153703333262514</v>
+        <v>0.02003427812059333</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.195280754576744</v>
+        <v>0.1337437072856421</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.23485316192969</v>
+        <v>0.8462220145937644</v>
       </c>
       <c r="E54" t="n">
         <v>38</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9458537441210983</v>
+        <v>0.7650306273452613</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8275671297308544</v>
+        <v>0.1606729961647769</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1101945974760201</v>
+        <v>0.07429637648996198</v>
       </c>
       <c r="E55" t="n">
         <v>39</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.59888945322302</v>
+        <v>0.8873785812458529</v>
       </c>
       <c r="C56" t="n">
-        <v>1.02937073672017</v>
+        <v>0.07584504760594397</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01380859471536645</v>
+        <v>0.03677637114820315</v>
       </c>
       <c r="E56" t="n">
         <v>39</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.033446674517124</v>
+        <v>0.9430609226865414</v>
       </c>
       <c r="C57" t="n">
-        <v>1.351427505874635</v>
+        <v>0.04079071919560966</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.07522183270181403</v>
+        <v>0.0161483581178489</v>
       </c>
       <c r="E57" t="n">
         <v>39</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.110406427997338</v>
+        <v>0.7994921809542656</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9225195428966708</v>
+        <v>0.1496076376190774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3050242249301341</v>
+        <v>0.05090018142665707</v>
       </c>
       <c r="E58" t="n">
         <v>39</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.466236764052392</v>
+        <v>0.8710896849638073</v>
       </c>
       <c r="C59" t="n">
-        <v>1.077735807991995</v>
+        <v>0.1040675731041572</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7937139447850916</v>
+        <v>0.02484274193203554</v>
       </c>
       <c r="E59" t="n">
         <v>39</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1693585357152431</v>
+        <v>0.5440171288874956</v>
       </c>
       <c r="C60" t="n">
-        <v>1.454940266524589</v>
+        <v>0.4396300700903493</v>
       </c>
       <c r="D60" t="n">
-        <v>1.776668540703913</v>
+        <v>0.01635280102215519</v>
       </c>
       <c r="E60" t="n">
         <v>39</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9124318785631564</v>
+        <v>0.7394608978876145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7426570968000221</v>
+        <v>0.1865915533478359</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3141616829986076</v>
+        <v>0.07394754876454952</v>
       </c>
       <c r="E61" t="n">
         <v>39</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.032864872660683</v>
+        <v>0.7530181132689253</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6638928113684317</v>
+        <v>0.1623383817034743</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2357145322797108</v>
+        <v>0.08464350502760044</v>
       </c>
       <c r="E62" t="n">
         <v>39</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.478219377592091</v>
+        <v>0.8881398573593415</v>
       </c>
       <c r="C63" t="n">
-        <v>1.490251379504469</v>
+        <v>0.1056964873674408</v>
       </c>
       <c r="D63" t="n">
-        <v>1.788959586689553</v>
+        <v>0.006163655273217702</v>
       </c>
       <c r="E63" t="n">
         <v>39</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8234394890037302</v>
+        <v>0.7297296119185963</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8581249759768168</v>
+        <v>0.2068654995565097</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3625879805899067</v>
+        <v>0.06340488852489407</v>
       </c>
       <c r="E64" t="n">
         <v>39</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.400803173000132</v>
+        <v>0.867514915439984</v>
       </c>
       <c r="C65" t="n">
-        <v>1.212429050607976</v>
+        <v>0.1024263053645857</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1848651219650809</v>
+        <v>0.03005877919543048</v>
       </c>
       <c r="E65" t="n">
         <v>39</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.088692275723281</v>
+        <v>0.1383651918094458</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.06580821781803413</v>
+        <v>0.7102555063438373</v>
       </c>
       <c r="D66" t="n">
-        <v>1.026177883161181</v>
+        <v>0.1513793018467166</v>
       </c>
       <c r="E66" t="n">
         <v>39</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09555339157192611</v>
+        <v>0.510108467695072</v>
       </c>
       <c r="C67" t="n">
-        <v>1.384211369435065</v>
+        <v>0.4410806988536158</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9161559081468044</v>
+        <v>0.0488108334513121</v>
       </c>
       <c r="E67" t="n">
         <v>39</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.8031066487003162</v>
+        <v>0.1927197481923113</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0171084400627155</v>
+        <v>0.5840495111775905</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5758342536502268</v>
+        <v>0.2232307406300984</v>
       </c>
       <c r="E68" t="n">
         <v>39</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6886080158401604</v>
+        <v>0.6922479659902925</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8368753971107314</v>
+        <v>0.2405921456231393</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4366594756333596</v>
+        <v>0.06715988838656838</v>
       </c>
       <c r="E69" t="n">
         <v>39</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.03924131160397845</v>
+        <v>0.4204754385566081</v>
       </c>
       <c r="C70" t="n">
-        <v>0.351395274181173</v>
+        <v>0.4267387962052798</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5050878180527675</v>
+        <v>0.1527857652381117</v>
       </c>
       <c r="E70" t="n">
         <v>39</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.241565577621373</v>
+        <v>0.8436515503156852</v>
       </c>
       <c r="C71" t="n">
-        <v>1.1942923902949</v>
+        <v>0.1195624176670963</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0365163498025114</v>
+        <v>0.03678603201721846</v>
       </c>
       <c r="E71" t="n">
         <v>39</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.221882702752652</v>
+        <v>0.1460578286335644</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1544510412932926</v>
+        <v>0.6895506806678962</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7576760835726778</v>
+        <v>0.1643914906985394</v>
       </c>
       <c r="E72" t="n">
         <v>39</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4605941771496775</v>
+        <v>0.6140160308419428</v>
       </c>
       <c r="C73" t="n">
-        <v>0.684952890992097</v>
+        <v>0.294897513267717</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4233946181098167</v>
+        <v>0.09108645589033983</v>
       </c>
       <c r="E73" t="n">
         <v>39</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1073913851138025</v>
+        <v>0.4421514690406902</v>
       </c>
       <c r="C74" t="n">
-        <v>1.033716971248004</v>
+        <v>0.4690582974553141</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5172245733126555</v>
+        <v>0.08879023350399558</v>
       </c>
       <c r="E74" t="n">
         <v>39</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.925920512179817</v>
+        <v>0.93628109075884</v>
       </c>
       <c r="C75" t="n">
-        <v>1.80335832181923</v>
+        <v>0.05638325496012597</v>
       </c>
       <c r="D75" t="n">
-        <v>0.828498791997004</v>
+        <v>0.007335654281033768</v>
       </c>
       <c r="E75" t="n">
         <v>39</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.666281315678675</v>
+        <v>0.9096191221773005</v>
       </c>
       <c r="C76" t="n">
-        <v>1.325503134658946</v>
+        <v>0.08243682592094644</v>
       </c>
       <c r="D76" t="n">
-        <v>1.713963863195761</v>
+        <v>0.007944051901753277</v>
       </c>
       <c r="E76" t="n">
         <v>39</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.8925901061231145</v>
+        <v>0.2185090410688163</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5149564732216516</v>
+        <v>0.6362694606891559</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5495782499358308</v>
+        <v>0.1452214982420273</v>
       </c>
       <c r="E77" t="n">
         <v>39</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.3568420770910455</v>
+        <v>0.3560337026007537</v>
       </c>
       <c r="C78" t="n">
-        <v>1.26130159003813</v>
+        <v>0.6077673047926422</v>
       </c>
       <c r="D78" t="n">
-        <v>1.410762955238938</v>
+        <v>0.03619899260660401</v>
       </c>
       <c r="E78" t="n">
         <v>39</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1619377862495457</v>
+        <v>0.2650728312630424</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.146324858172274</v>
+        <v>0.3669277075913393</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01454723016377879</v>
+        <v>0.3679994611456179</v>
       </c>
       <c r="E79" t="n">
         <v>39</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D80" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E80" t="n">
         <v>39</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.2781344027605298</v>
+        <v>0.2803644821367099</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.03863195687091842</v>
+        <v>0.419409714378911</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1917308211640352</v>
+        <v>0.3002258034843793</v>
       </c>
       <c r="E81" t="n">
         <v>39</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.135154304808186</v>
+        <v>0.8097162973470705</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9863949877773048</v>
+        <v>0.1429257542958624</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2312061121490108</v>
+        <v>0.04735794835706694</v>
       </c>
       <c r="E82" t="n">
         <v>39</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.852031599525007</v>
+        <v>0.7540750240720454</v>
       </c>
       <c r="C83" t="n">
-        <v>1.198691611164425</v>
+        <v>0.2204448701886709</v>
       </c>
       <c r="D83" t="n">
-        <v>1.071216117710817</v>
+        <v>0.02548010573928371</v>
       </c>
       <c r="E83" t="n">
         <v>39</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.224462302311892</v>
+        <v>0.5495024488543189</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8918145626531966</v>
+        <v>0.3802666593117457</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6592247910477336</v>
+        <v>0.07023089183393512</v>
       </c>
       <c r="E84" t="n">
         <v>39</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5744175843463311</v>
+        <v>0.6764866774144646</v>
       </c>
       <c r="C85" t="n">
-        <v>1.161474499052157</v>
+        <v>0.2994998960143508</v>
       </c>
       <c r="D85" t="n">
-        <v>1.365307396611664</v>
+        <v>0.02401342657118464</v>
       </c>
       <c r="E85" t="n">
         <v>39</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.579776896403289</v>
+        <v>0.8991609456532577</v>
       </c>
       <c r="C86" t="n">
-        <v>1.363251536999199</v>
+        <v>0.09226110681508756</v>
       </c>
       <c r="D86" t="n">
-        <v>1.544099931240428</v>
+        <v>0.008577947531654992</v>
       </c>
       <c r="E86" t="n">
         <v>39</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6017424665676414</v>
+        <v>0.6775448148490297</v>
       </c>
       <c r="C87" t="n">
-        <v>0.956996210791162</v>
+        <v>0.2532503173791105</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2640524974569197</v>
+        <v>0.06920486777185995</v>
       </c>
       <c r="E87" t="n">
         <v>39</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.05426217787627158</v>
+        <v>0.3911584549437026</v>
       </c>
       <c r="C88" t="n">
-        <v>0.184887139895885</v>
+        <v>0.3621080175210794</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05977270694822523</v>
+        <v>0.2467335275352178</v>
       </c>
       <c r="E88" t="n">
         <v>39</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.529574022000824</v>
+        <v>0.8916127677771319</v>
       </c>
       <c r="C89" t="n">
-        <v>1.451610617262368</v>
+        <v>0.09751528321363201</v>
       </c>
       <c r="D89" t="n">
-        <v>1.141048344781384</v>
+        <v>0.01087194900923577</v>
       </c>
       <c r="E89" t="n">
         <v>39</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.656607454383617</v>
+        <v>0.9076488004656799</v>
       </c>
       <c r="C90" t="n">
-        <v>1.338324458068734</v>
+        <v>0.08327420631067961</v>
       </c>
       <c r="D90" t="n">
-        <v>1.465593733943217</v>
+        <v>0.009076993223640783</v>
       </c>
       <c r="E90" t="n">
         <v>39</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7517351988460363</v>
+        <v>0.701599157184658</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6151797307332565</v>
+        <v>0.1768089139906446</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.3830912901203583</v>
+        <v>0.1215919288246975</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.123887823758654</v>
+        <v>0.28317160366253</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1136470605403585</v>
+        <v>0.3597453921261633</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01680220379455157</v>
+        <v>0.3570830042113065</v>
       </c>
       <c r="E92" t="n">
         <v>40</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.393804592926532</v>
+        <v>0.2727176002964852</v>
       </c>
       <c r="C93" t="n">
-        <v>0.009661776614340339</v>
+        <v>0.4445849391818383</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2155928384664216</v>
+        <v>0.2826974605216767</v>
       </c>
       <c r="E93" t="n">
         <v>40</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.9436914727639012</v>
+        <v>0.03514638099280968</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.011357427454017</v>
+        <v>0.1762803251784222</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.000308471129115</v>
+        <v>0.7885732938287682</v>
       </c>
       <c r="E94" t="n">
         <v>40</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D95" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E95" t="n">
         <v>40</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1576960814487635</v>
+        <v>0.2657941095114612</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.145792840577965</v>
+        <v>0.3654258236832943</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01002330966061227</v>
+        <v>0.3687800668052444</v>
       </c>
       <c r="E96" t="n">
         <v>40</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D97" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E97" t="n">
         <v>40</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D98" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E98" t="n">
         <v>40</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1575668592244987</v>
+        <v>0.2656410225384073</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1462756313367402</v>
+        <v>0.3653137194822243</v>
       </c>
       <c r="D99" t="n">
-        <v>0.009484940645201393</v>
+        <v>0.3690452579793682</v>
       </c>
       <c r="E99" t="n">
         <v>40</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.2009054458027743</v>
+        <v>0.2616035305856191</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.1421692235022705</v>
+        <v>0.3823616304698346</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06531900848372761</v>
+        <v>0.3560348389445462</v>
       </c>
       <c r="E100" t="n">
         <v>40</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E101" t="n">
         <v>40</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.037784371204259</v>
+        <v>0.02814906902401076</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.101841719940585</v>
+        <v>0.1713876366486279</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.029385078066109</v>
+        <v>0.8004632943273611</v>
       </c>
       <c r="E102" t="n">
         <v>40</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D103" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E103" t="n">
         <v>40</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D104" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E104" t="n">
         <v>40</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D105" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E105" t="n">
         <v>40</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D106" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E106" t="n">
         <v>40</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D107" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E107" t="n">
         <v>40</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.146665328016205</v>
+        <v>0.2705220519266879</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1364769051044175</v>
+        <v>0.3633263243437839</v>
       </c>
       <c r="D108" t="n">
-        <v>0.008452827041756322</v>
+        <v>0.3661516237295281</v>
       </c>
       <c r="E108" t="n">
         <v>40</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2480309174732938</v>
+        <v>0.2540143340890445</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1463297618866023</v>
+        <v>0.3995331289757322</v>
       </c>
       <c r="D109" t="n">
-        <v>0.115787308295079</v>
+        <v>0.3464525369352229</v>
       </c>
       <c r="E109" t="n">
         <v>40</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D110" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E110" t="n">
         <v>40</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D111" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E111" t="n">
         <v>40</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E112" t="n">
         <v>40</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0588797867839787</v>
+        <v>0.1880764010800119</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.4597794309747693</v>
+        <v>0.3177501468128427</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1411219775499225</v>
+        <v>0.4941734521071454</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E114" t="n">
         <v>40</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.982716404962561</v>
+        <v>0.08334941101166803</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.337071271871597</v>
+        <v>0.7965182244333744</v>
       </c>
       <c r="D115" t="n">
-        <v>1.362977427751799</v>
+        <v>0.1201323645549574</v>
       </c>
       <c r="E115" t="n">
         <v>40</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.08064574133646818</v>
+        <v>0.4143275240103726</v>
       </c>
       <c r="C116" t="n">
-        <v>0.121439155629394</v>
+        <v>0.2002451351840047</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.186685568584559</v>
+        <v>0.3854273408056226</v>
       </c>
       <c r="E116" t="n">
         <v>40</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1586974786982028</v>
+        <v>0.2654245297472138</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1464830302364756</v>
+        <v>0.3656820096558043</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01051979580323269</v>
+        <v>0.3688934605969821</v>
       </c>
       <c r="E117" t="n">
         <v>40</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312792</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.1463297857390108</v>
+        <v>0.3649959531621753</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00845226148171572</v>
+        <v>0.3692785599065453</v>
       </c>
       <c r="E118" t="n">
         <v>40</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D119" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E119" t="n">
         <v>40</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D120" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E120" t="n">
         <v>40</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D121" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E121" t="n">
         <v>40</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D122" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E122" t="n">
         <v>40</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2333539598239307</v>
+        <v>0.2539835275974173</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1463278031756494</v>
+        <v>0.3957071882835947</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09797484823997352</v>
+        <v>0.3503092841189879</v>
       </c>
       <c r="E123" t="n">
         <v>40</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1567422838380853</v>
+        <v>0.2657246319648321</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.146332259081307</v>
+        <v>0.364995369822781</v>
       </c>
       <c r="D124" t="n">
-        <v>0.008449111629646754</v>
+        <v>0.3692799982123869</v>
       </c>
       <c r="E124" t="n">
         <v>41</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1567424785939767</v>
+        <v>0.2657254869006928</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959532526869</v>
       </c>
       <c r="D125" t="n">
-        <v>0.008452261767908149</v>
+        <v>0.3692785598466202</v>
       </c>
       <c r="E125" t="n">
         <v>41</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1683181854445884</v>
+        <v>0.5031631481127624</v>
       </c>
       <c r="C126" t="n">
-        <v>0.40844075021007</v>
+        <v>0.4181215338931636</v>
       </c>
       <c r="D126" t="n">
-        <v>1.444030851877448</v>
+        <v>0.07871531799407402</v>
       </c>
       <c r="E126" t="n">
         <v>41</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.6240996816493614</v>
+        <v>0.1629916993417922</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.314842285203371</v>
+        <v>0.4006456133868415</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.07351776749804503</v>
+        <v>0.4363626872713658</v>
       </c>
       <c r="E127" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1707731199324153</v>
+        <v>0.2643121189233885</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1452876688126659</v>
+        <v>0.3703001994139957</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0254370182893981</v>
+        <v>0.3653876816626154</v>
       </c>
       <c r="E128" t="n">
         <v>41</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.44998273561535</v>
+        <v>0.248938185064014</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.3393207443504518</v>
+        <v>0.2442817961446981</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.2622051855689413</v>
+        <v>0.5067800187912875</v>
       </c>
       <c r="E129" t="n">
         <v>41</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3279701932994979</v>
+        <v>0.5952998612161366</v>
       </c>
       <c r="C130" t="n">
-        <v>1.120902799423291</v>
+        <v>0.3788617752538602</v>
       </c>
       <c r="D130" t="n">
-        <v>1.46787245828379</v>
+        <v>0.02583836353000279</v>
       </c>
       <c r="E130" t="n">
         <v>41</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.2431799473774902</v>
+        <v>0.3156630026393721</v>
       </c>
       <c r="C131" t="n">
-        <v>0.06479730742039549</v>
+        <v>0.4094488457748536</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1560406603302895</v>
+        <v>0.274888151585774</v>
       </c>
       <c r="E131" t="n">
         <v>41</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.06842603076809253</v>
+        <v>0.3080187008080284</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.06103538774787017</v>
+        <v>0.3504691128316553</v>
       </c>
       <c r="D132" t="n">
-        <v>0.003765538252679572</v>
+        <v>0.3415121863603161</v>
       </c>
       <c r="E132" t="n">
         <v>41</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.185909057791375</v>
+        <v>0.1398666669909138</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0790905925165189</v>
+        <v>0.7163030755343354</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9604430399360214</v>
+        <v>0.1438302574747506</v>
       </c>
       <c r="E133" t="n">
         <v>41</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.04906316849721495</v>
+        <v>0.4975336640364739</v>
       </c>
       <c r="C134" t="n">
-        <v>1.339501122638442</v>
+        <v>0.4786833127593595</v>
       </c>
       <c r="D134" t="n">
-        <v>1.568081344360112</v>
+        <v>0.02378302320416649</v>
       </c>
       <c r="E134" t="n">
         <v>41</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1569291845360634</v>
+        <v>0.2657020058633875</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.146329783315581</v>
+        <v>0.3650654055471107</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00867180055255019</v>
+        <v>0.3692325885895014</v>
       </c>
       <c r="E135" t="n">
         <v>41</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E136" t="n">
         <v>41</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E137" t="n">
         <v>41</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.136671425569735</v>
+        <v>0.2754173392265666</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1264372492242195</v>
+        <v>0.3616688828571835</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008452261451172746</v>
+        <v>0.3629137779162497</v>
       </c>
       <c r="E138" t="n">
         <v>41</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E139" t="n">
         <v>41</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1598800234429872</v>
+        <v>0.2653292021143094</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.146333721286752</v>
+        <v>0.3661627622366785</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01213578788963851</v>
+        <v>0.368508035649012</v>
       </c>
       <c r="E140" t="n">
         <v>41</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7511524085962953</v>
+        <v>0.7199930076604941</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9871703445348603</v>
+        <v>0.2206911782266043</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3045103872431029</v>
+        <v>0.05931581411290174</v>
       </c>
       <c r="E141" t="n">
         <v>41</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.3046861095963127</v>
+        <v>0.2497247851640418</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1343910629455315</v>
+        <v>0.4145627333229552</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1499058600503332</v>
+        <v>0.3357124815130028</v>
       </c>
       <c r="E142" t="n">
         <v>41</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E143" t="n">
         <v>41</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3720121017333411</v>
+        <v>0.5226290831819157</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3004813683789589</v>
+        <v>0.3173254209596091</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5045280169704273</v>
+        <v>0.1600454958584752</v>
       </c>
       <c r="E144" t="n">
         <v>41</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1291752611308133</v>
+        <v>0.2858462210170035</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.09803620366632027</v>
+        <v>0.3654505276508507</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0332700951158575</v>
+        <v>0.3487032513321456</v>
       </c>
       <c r="E145" t="n">
         <v>41</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E146" t="n">
         <v>41</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4607444118476779</v>
+        <v>0.6338008802470408</v>
       </c>
       <c r="C147" t="n">
-        <v>1.097789114842555</v>
+        <v>0.3130938599603356</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6526475505437208</v>
+        <v>0.05310525979262358</v>
       </c>
       <c r="E147" t="n">
         <v>41</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E148" t="n">
         <v>41</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1567415903498457</v>
+        <v>0.2590888635021651</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.1649346980299126</v>
+        <v>0.3611363335280945</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.01352851549179176</v>
+        <v>0.3797748029697405</v>
       </c>
       <c r="E149" t="n">
         <v>41</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E150" t="n">
         <v>41</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1567424783507404</v>
+        <v>0.2657254869312838</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1463297857390014</v>
+        <v>0.3649959531621743</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008452261481717356</v>
+        <v>0.3692785599065421</v>
       </c>
       <c r="E151" t="n">
         <v>41</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1567424783510853</v>
+        <v>0.2657254869312375</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531623009</v>
       </c>
       <c r="D152" t="n">
-        <v>0.008452261482113451</v>
+        <v>0.3692785599064616</v>
       </c>
       <c r="E152" t="n">
         <v>41</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.4985360903462269</v>
+        <v>0.3091349073198907</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7904712602000967</v>
+        <v>0.6159732335430925</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9775527321974318</v>
+        <v>0.07489185913701689</v>
       </c>
       <c r="E153" t="n">
         <v>41</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1535408524032681</v>
+        <v>0.509262167860685</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5452933790863703</v>
+        <v>0.359473651644657</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2835342353071105</v>
+        <v>0.1312641804946579</v>
       </c>
       <c r="E154" t="n">
         <v>41</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D155" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E155" t="n">
         <v>42</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1334730535155667</v>
+        <v>0.409577104231183</v>
       </c>
       <c r="C156" t="n">
-        <v>0.119136916079678</v>
+        <v>0.3201194463629542</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0262056612116701</v>
+        <v>0.2703034494058628</v>
       </c>
       <c r="E156" t="n">
         <v>42</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.7281136455924793</v>
+        <v>0.222440093810149</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1227516958338736</v>
+        <v>0.5955718095410016</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6700152685882568</v>
+        <v>0.1819880966488495</v>
       </c>
       <c r="E157" t="n">
         <v>42</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.1743879263852671</v>
+        <v>0.3928582928980826</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4316441819149675</v>
+        <v>0.4643457913825248</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4905308625065228</v>
+        <v>0.1427959157193923</v>
       </c>
       <c r="E158" t="n">
         <v>42</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.0699382525649815</v>
+        <v>0.08448802261751998</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.000243258062961</v>
+        <v>0.2708269012517491</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.4515849371886752</v>
+        <v>0.6446850761307307</v>
       </c>
       <c r="E159" t="n">
         <v>42</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1036886660830575</v>
+        <v>0.4768159778840032</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3981110831458219</v>
+        <v>0.4256103160485589</v>
       </c>
       <c r="D160" t="n">
-        <v>1.077823105858577</v>
+        <v>0.09757370606743794</v>
       </c>
       <c r="E160" t="n">
         <v>42</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.8645312801096763</v>
+        <v>0.2301601860961638</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3068909716074804</v>
+        <v>0.5611783550549334</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2929630553496061</v>
+        <v>0.2086614588489031</v>
       </c>
       <c r="E161" t="n">
         <v>42</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0795415870922879</v>
+        <v>0.4949441836640244</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6748818215565708</v>
+        <v>0.4511104957087101</v>
       </c>
       <c r="D162" t="n">
-        <v>1.308110303313736</v>
+        <v>0.05394532062726558</v>
       </c>
       <c r="E162" t="n">
         <v>42</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1154318336376463</v>
+        <v>0.4335416447515658</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8729765023134608</v>
+        <v>0.4850090793936809</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6996877742223883</v>
+        <v>0.08144927585475328</v>
       </c>
       <c r="E163" t="n">
         <v>42</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9018181719633074</v>
+        <v>0.6588613136248582</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3927932649275133</v>
+        <v>0.1854908397276115</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1269546346604307</v>
+        <v>0.1556478466475305</v>
       </c>
       <c r="E164" t="n">
         <v>42</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.2376905106038376</v>
+        <v>0.2616927174880293</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.1263952035094029</v>
+        <v>0.3958998657344364</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1078906854017839</v>
+        <v>0.3424074167775345</v>
       </c>
       <c r="E165" t="n">
         <v>42</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.1757944304326866</v>
+        <v>0.2737518507453536</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1133382922968591</v>
+        <v>0.3749209059110407</v>
       </c>
       <c r="D166" t="n">
-        <v>0.04489579637642766</v>
+        <v>0.3513272433436057</v>
       </c>
       <c r="E166" t="n">
         <v>42</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.1530010643710953</v>
+        <v>0.3802060992060255</v>
       </c>
       <c r="C167" t="n">
-        <v>0.296845959613119</v>
+        <v>0.4658167784584646</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6132744748452177</v>
+        <v>0.1539771223355101</v>
       </c>
       <c r="E167" t="n">
         <v>42</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.188468769032382</v>
+        <v>0.4163888386972994</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1086896746634993</v>
+        <v>0.3186982152284114</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09517533988941983</v>
+        <v>0.2649129460742891</v>
       </c>
       <c r="E168" t="n">
         <v>42</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1521636373106079</v>
+        <v>0.2672391048145624</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1437134898686497</v>
+        <v>0.3639112996001027</v>
       </c>
       <c r="D169" t="n">
-        <v>0.006555305150276134</v>
+        <v>0.368849595585335</v>
       </c>
       <c r="E169" t="n">
         <v>42</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.008975280159655</v>
+        <v>0.2695131939166114</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.3015828960506161</v>
+        <v>0.1035487941864597</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.015481476380664</v>
+        <v>0.6269380118969291</v>
       </c>
       <c r="E170" t="n">
         <v>42</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.523964414262665</v>
+        <v>0.6908747069444914</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2967957216152671</v>
+        <v>0.09902455516264035</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.2469078827834536</v>
+        <v>0.2101007378928683</v>
       </c>
       <c r="E171" t="n">
         <v>42</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.319384594047708</v>
+        <v>0.8302134158687109</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8014169588804942</v>
+        <v>0.1268445691651283</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8999172737807242</v>
+        <v>0.04294201496616053</v>
       </c>
       <c r="E172" t="n">
         <v>42</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.259287081583565</v>
+        <v>0.2529148847159585</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.15372368051673</v>
+        <v>0.466078185152266</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4420735102007921</v>
+        <v>0.2810069301317756</v>
       </c>
       <c r="E173" t="n">
         <v>42</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.089296645274896</v>
+        <v>0.8224507496721835</v>
       </c>
       <c r="C174" t="n">
-        <v>1.505307359273105</v>
+        <v>0.1420208427906099</v>
       </c>
       <c r="D174" t="n">
-        <v>0.01719710390670867</v>
+        <v>0.03552840753720686</v>
       </c>
       <c r="E174" t="n">
         <v>42</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3224762197195662</v>
+        <v>0.2430276391636088</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.3067438439867147</v>
+        <v>0.1850332610636712</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.6946474603508197</v>
+        <v>0.5719390997727198</v>
       </c>
       <c r="E175" t="n">
         <v>42</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1607770679925916</v>
+        <v>0.4744123008814385</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1823355188434708</v>
+        <v>0.1972528102964882</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.019763146905646</v>
+        <v>0.3283348888220733</v>
       </c>
       <c r="E176" t="n">
         <v>42</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.706922629788228</v>
+        <v>0.8781223855220804</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8337479106116881</v>
+        <v>0.07675723574893686</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4308280547409027</v>
+        <v>0.04512037872898263</v>
       </c>
       <c r="E177" t="n">
         <v>42</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.8675910262193571</v>
+        <v>0.132184681768816</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.3476782700297921</v>
+        <v>0.6562615847848318</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8279714210963088</v>
+        <v>0.2115537334463521</v>
       </c>
       <c r="E178" t="n">
         <v>42</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1557138225248393</v>
+        <v>0.2664987644388407</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.1445542601565299</v>
+        <v>0.3651849981780336</v>
       </c>
       <c r="D179" t="n">
-        <v>0.01039605493719804</v>
+        <v>0.3683162373831258</v>
       </c>
       <c r="E179" t="n">
         <v>42</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.1917360007315205</v>
+        <v>0.4181364209110922</v>
       </c>
       <c r="C180" t="n">
-        <v>0.8853735709120687</v>
+        <v>0.4711483414235601</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3641288975658033</v>
+        <v>0.1107152376653478</v>
       </c>
       <c r="E180" t="n">
         <v>42</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.4392278711106379</v>
+        <v>0.2256547329788438</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.1462412407144269</v>
+        <v>0.476953906240271</v>
       </c>
       <c r="D181" t="n">
-        <v>0.340172434153658</v>
+        <v>0.2973913607808852</v>
       </c>
       <c r="E181" t="n">
         <v>42</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.1567424783507486</v>
+        <v>0.2657254869312798</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.1463297857390094</v>
+        <v>0.3649959531621755</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008452261481717354</v>
+        <v>0.3692785599065445</v>
       </c>
       <c r="E182" t="n">
         <v>42</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.1732343627214872</v>
+        <v>0.2638362313421343</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.1457853664214512</v>
+        <v>0.3712993745811953</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02866991764797102</v>
+        <v>0.3648643940766704</v>
       </c>
       <c r="E183" t="n">
         <v>42</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.07484184137710026</v>
+        <v>0.311367490373943</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.1210677013516501</v>
+        <v>0.5091805743053212</v>
       </c>
       <c r="D184" t="n">
-        <v>1.147037681067362</v>
+        <v>0.1794519353207357</v>
       </c>
       <c r="E184" t="n">
         <v>42</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1054204820330597</v>
+        <v>0.4022743535973161</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1135749702994907</v>
+        <v>0.3227687755011761</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0087433157901592</v>
+        <v>0.2749568709015077</v>
       </c>
       <c r="E185" t="n">
         <v>42</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.1849070651841237</v>
+        <v>0.3592099492720001</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1558363631352553</v>
+        <v>0.3638364493996116</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.06934998097779826</v>
+        <v>0.2769536013283883</v>
       </c>
       <c r="E186" t="n">
         <v>42</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.5359294083539863</v>
+        <v>0.2983498875565409</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7916970798627341</v>
+        <v>0.6270104002720649</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9899489409037397</v>
+        <v>0.07463971217139417</v>
       </c>
       <c r="E187" t="n">
         <v>43</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.316361335506774</v>
+        <v>0.8686996474526398</v>
       </c>
       <c r="C188" t="n">
-        <v>1.073862401573086</v>
+        <v>0.08967288758135243</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.6175802203961031</v>
+        <v>0.04162746496600785</v>
       </c>
       <c r="E188" t="n">
         <v>43</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.08550866770947224</v>
+        <v>0.506957578578357</v>
       </c>
       <c r="C189" t="n">
-        <v>1.026295476861695</v>
+        <v>0.4142036772146058</v>
       </c>
       <c r="D189" t="n">
-        <v>0.526028117803634</v>
+        <v>0.07883874420703718</v>
       </c>
       <c r="E189" t="n">
         <v>43</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.7021440194505422</v>
+        <v>0.2563626895641382</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9152952742002098</v>
+        <v>0.6507846518279425</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7792587036544293</v>
+        <v>0.09285265860791947</v>
       </c>
       <c r="E190" t="n">
         <v>43</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.09114050184307164</v>
+        <v>0.4459885284497925</v>
       </c>
       <c r="C191" t="n">
-        <v>1.196747156278207</v>
+        <v>0.4785743052182727</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6415952703199963</v>
+        <v>0.07543716633193476</v>
       </c>
       <c r="E191" t="n">
         <v>43</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.424420613780583</v>
+        <v>0.8830981569589725</v>
       </c>
       <c r="C192" t="n">
-        <v>1.530402387314191</v>
+        <v>0.09259812993832332</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.05318816870535513</v>
+        <v>0.02430371310270401</v>
       </c>
       <c r="E192" t="n">
         <v>43</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.21349877754137</v>
+        <v>0.5540591556888897</v>
       </c>
       <c r="C193" t="n">
-        <v>1.246219088713127</v>
+        <v>0.3781956554086439</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5147506503412148</v>
+        <v>0.06774518890246627</v>
       </c>
       <c r="E193" t="n">
         <v>43</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4187089450083879</v>
+        <v>0.6319700445557906</v>
       </c>
       <c r="C194" t="n">
-        <v>1.497989082958096</v>
+        <v>0.3534870022751344</v>
       </c>
       <c r="D194" t="n">
-        <v>1.714383735420306</v>
+        <v>0.01454295316907492</v>
       </c>
       <c r="E194" t="n">
         <v>43</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1973536612257205</v>
+        <v>0.5465138517590227</v>
       </c>
       <c r="C195" t="n">
-        <v>1.099188610234434</v>
+        <v>0.3822148555498279</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5237849492346328</v>
+        <v>0.07127129269114955</v>
       </c>
       <c r="E195" t="n">
         <v>43</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7476640162230082</v>
+        <v>0.7117706435491277</v>
       </c>
       <c r="C196" t="n">
-        <v>0.8896707990070352</v>
+        <v>0.2351370208486955</v>
       </c>
       <c r="D196" t="n">
-        <v>0.652041134971487</v>
+        <v>0.05309233560217699</v>
       </c>
       <c r="E196" t="n">
         <v>43</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.08126311341945888</v>
+        <v>0.3067713847314827</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.05558445881797362</v>
+        <v>0.3558133258466454</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0160799076663811</v>
+        <v>0.3374152894218717</v>
       </c>
       <c r="E197" t="n">
         <v>43</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.11054395115443</v>
+        <v>0.8213965039842379</v>
       </c>
       <c r="C198" t="n">
-        <v>1.377347205425176</v>
+        <v>0.1433037381150262</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1389231850185981</v>
+        <v>0.03529975790073609</v>
       </c>
       <c r="E198" t="n">
         <v>43</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.6961446284243507</v>
+        <v>0.7223884364075341</v>
       </c>
       <c r="C199" t="n">
-        <v>1.412396469110315</v>
+        <v>0.2229243192452031</v>
       </c>
       <c r="D199" t="n">
-        <v>0.09729655447779409</v>
+        <v>0.0546872443472627</v>
       </c>
       <c r="E199" t="n">
         <v>43</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8157308905583933</v>
+        <v>0.4262118146421315</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.04069929371960898</v>
+        <v>0.1657088838456656</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.4679214474682979</v>
+        <v>0.4080793015122031</v>
       </c>
       <c r="E200" t="n">
         <v>43</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.003542581981288</v>
+        <v>0.7960922115875516</v>
       </c>
       <c r="C201" t="n">
-        <v>1.709874762606688</v>
+        <v>0.1738138959723478</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4520567157238027</v>
+        <v>0.03009389244010035</v>
       </c>
       <c r="E201" t="n">
         <v>43</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.737326045999845</v>
+        <v>0.907379358474685</v>
       </c>
       <c r="C202" t="n">
-        <v>1.194121696388946</v>
+        <v>0.07004990544696672</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3588503071218478</v>
+        <v>0.02257073607834851</v>
       </c>
       <c r="E202" t="n">
         <v>43</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.5206528655782252</v>
+        <v>0.3015013535171078</v>
       </c>
       <c r="C203" t="n">
-        <v>1.037840280173662</v>
+        <v>0.6417068314800374</v>
       </c>
       <c r="D203" t="n">
-        <v>1.142010363114173</v>
+        <v>0.05679181500285475</v>
       </c>
       <c r="E203" t="n">
         <v>43</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.3243284056652564</v>
+        <v>0.3073812467309448</v>
       </c>
       <c r="C204" t="n">
-        <v>0.09857898717546626</v>
+        <v>0.4331328432926487</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1967738633432471</v>
+        <v>0.2594859099764066</v>
       </c>
       <c r="E204" t="n">
         <v>43</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.08708364160139297</v>
+        <v>0.4177068639100719</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4231477907591298</v>
+        <v>0.4355595757511933</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4409526551706889</v>
+        <v>0.1467335603387348</v>
       </c>
       <c r="E205" t="n">
         <v>43</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.126105041734356</v>
+        <v>0.7536347741670828</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5807824822462482</v>
+        <v>0.1380471207214976</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05448993438393519</v>
+        <v>0.1083181051114197</v>
       </c>
       <c r="E206" t="n">
         <v>43</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9537527126959626</v>
+        <v>0.751190551280257</v>
       </c>
       <c r="C207" t="n">
-        <v>0.7108005027521684</v>
+        <v>0.1565876825723518</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1874517807484328</v>
+        <v>0.09222176614739114</v>
       </c>
       <c r="E207" t="n">
         <v>43</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8602124909657189</v>
+        <v>0.7474229736418042</v>
       </c>
       <c r="C208" t="n">
-        <v>0.8799158064233246</v>
+        <v>0.182258438112564</v>
       </c>
       <c r="D208" t="n">
-        <v>0.008422177878070704</v>
+        <v>0.07031858824563206</v>
       </c>
       <c r="E208" t="n">
         <v>43</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.9202969649550274</v>
+        <v>0.7762417332665564</v>
       </c>
       <c r="C209" t="n">
-        <v>1.647603634365103</v>
+        <v>0.2048565850749748</v>
       </c>
       <c r="D209" t="n">
-        <v>1.060581057745159</v>
+        <v>0.01890168165846848</v>
       </c>
       <c r="E209" t="n">
         <v>43</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.1567371709234268</v>
+        <v>0.2652306685864845</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.1477229061507732</v>
+        <v>0.3647059108077411</v>
       </c>
       <c r="D210" t="n">
-        <v>0.006799781894306182</v>
+        <v>0.3700634206057744</v>
       </c>
       <c r="E210" t="n">
         <v>44</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.402393510133687</v>
+        <v>0.2392098199141781</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.1144386030756992</v>
+        <v>0.4662165806222228</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3207905105121875</v>
+        <v>0.294573599463599</v>
       </c>
       <c r="E211" t="n">
         <v>44</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.1410517582082434</v>
+        <v>0.2719816162079701</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.1343198682579658</v>
+        <v>0.3610498132978191</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00104570211801646</v>
+        <v>0.3669685704942107</v>
       </c>
       <c r="E212" t="n">
         <v>44</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.330767714908327</v>
+        <v>0.1273472860890395</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3360378948351359</v>
+        <v>0.7706966040624135</v>
       </c>
       <c r="D213" t="n">
-        <v>1.075589965698963</v>
+        <v>0.1019561098485469</v>
       </c>
       <c r="E213" t="n">
         <v>44</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.6632568518082704</v>
+        <v>0.694465783040904</v>
       </c>
       <c r="C214" t="n">
-        <v>1.020342255119595</v>
+        <v>0.2609046074908139</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7619157780484004</v>
+        <v>0.04462960946828182</v>
       </c>
       <c r="E214" t="n">
         <v>44</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.446444965129391</v>
+        <v>0.8823884989031477</v>
       </c>
       <c r="C215" t="n">
-        <v>1.337727972397187</v>
+        <v>0.1101604001292226</v>
       </c>
       <c r="D215" t="n">
-        <v>1.934660956479524</v>
+        <v>0.007451100967629665</v>
       </c>
       <c r="E215" t="n">
         <v>44</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.4598454038711133</v>
+        <v>0.2027001553762788</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.2319044538297562</v>
+        <v>0.4661003501378271</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2675874222154375</v>
+        <v>0.3311994944858942</v>
       </c>
       <c r="E216" t="n">
         <v>44</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8655578589878568</v>
+        <v>0.74085429396918</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8090904027455024</v>
+        <v>0.1827143316838043</v>
       </c>
       <c r="D217" t="n">
-        <v>0.03729353422140277</v>
+        <v>0.07643137434701562</v>
       </c>
       <c r="E217" t="n">
         <v>44</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5307313195043042</v>
+        <v>0.6541117147053326</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9839866913271791</v>
+        <v>0.2825014787701305</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4531539964368493</v>
+        <v>0.06338680652453681</v>
       </c>
       <c r="E218" t="n">
         <v>44</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7194448128354243</v>
+        <v>0.6933392248593284</v>
       </c>
       <c r="C219" t="n">
-        <v>0.7123123166399881</v>
+        <v>0.2134728522781533</v>
       </c>
       <c r="D219" t="n">
-        <v>0.07586791319128897</v>
+        <v>0.09318792286251862</v>
       </c>
       <c r="E219" t="n">
         <v>44</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5552416311373063</v>
+        <v>0.6164947044632753</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5136541929619354</v>
+        <v>0.2658771663042468</v>
       </c>
       <c r="D220" t="n">
-        <v>0.3687520839644882</v>
+        <v>0.1176281292324779</v>
       </c>
       <c r="E220" t="n">
         <v>44</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.3546900983385222</v>
+        <v>0.23645838946905</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.1564779896128826</v>
+        <v>0.4321779196329337</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1962368479061066</v>
+        <v>0.3313636908980161</v>
       </c>
       <c r="E221" t="n">
         <v>44</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.4740399362547101</v>
+        <v>0.3128458946003062</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6270738241529705</v>
+        <v>0.6169942684777854</v>
       </c>
       <c r="D222" t="n">
-        <v>1.154926844147745</v>
+        <v>0.07015983692190861</v>
       </c>
       <c r="E222" t="n">
         <v>44</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.7303399490404126</v>
+        <v>0.2287531247148863</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2046144289209679</v>
+        <v>0.6162030831591493</v>
       </c>
       <c r="D223" t="n">
-        <v>0.7630568078180198</v>
+        <v>0.1550437921259643</v>
       </c>
       <c r="E223" t="n">
         <v>44</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.125065460984255</v>
+        <v>0.8054820104394235</v>
       </c>
       <c r="C224" t="n">
-        <v>0.8867342150089275</v>
+        <v>0.1335509458136108</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.07432630449911061</v>
+        <v>0.0609670437469659</v>
       </c>
       <c r="E224" t="n">
         <v>44</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.2230733674150706</v>
+        <v>0.545008546939395</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6656628623055065</v>
+        <v>0.3376265255118153</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1944509299829155</v>
+        <v>0.1173649275487896</v>
       </c>
       <c r="E225" t="n">
         <v>44</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.07734496404952786</v>
+        <v>0.2106400014136967</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.333422429298196</v>
+        <v>0.3124735229854604</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.2121041599050213</v>
+        <v>0.4768864756008426</v>
       </c>
       <c r="E226" t="n">
         <v>44</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1628374893802066</v>
+        <v>0.4707201078035346</v>
       </c>
       <c r="C227" t="n">
-        <v>0.29357277093039</v>
+        <v>0.3189807178232408</v>
       </c>
       <c r="D227" t="n">
-        <v>0.02166487648845242</v>
+        <v>0.2102991743732242</v>
       </c>
       <c r="E227" t="n">
         <v>44</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.4873240452986777</v>
+        <v>0.614177401411566</v>
       </c>
       <c r="C228" t="n">
-        <v>0.6179256373095352</v>
+        <v>0.2883721155414963</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4484022048850199</v>
+        <v>0.09745048304693787</v>
       </c>
       <c r="E228" t="n">
         <v>44</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3713988645278307</v>
+        <v>0.5861241791000483</v>
       </c>
       <c r="C229" t="n">
-        <v>0.6739312288916364</v>
+        <v>0.3188645939944848</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4349222878649113</v>
+        <v>0.09501122690546702</v>
       </c>
       <c r="E229" t="n">
         <v>44</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.2662927904553455</v>
+        <v>0.378323041550275</v>
       </c>
       <c r="C230" t="n">
-        <v>0.6325461754835655</v>
+        <v>0.5096635895795094</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5849479793253439</v>
+        <v>0.1120133688702155</v>
       </c>
       <c r="E230" t="n">
         <v>44</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.1567424550129451</v>
+        <v>0.2657254981591081</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1463297624200402</v>
+        <v>0.3649959493223754</v>
       </c>
       <c r="D231" t="n">
-        <v>0.008452261702145015</v>
+        <v>0.3692785525185167</v>
       </c>
       <c r="E231" t="n">
         <v>44</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1567424783512941</v>
+        <v>0.2657254869311911</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.146329785739066</v>
+        <v>0.3649959531623667</v>
       </c>
       <c r="D232" t="n">
-        <v>0.008452261482291877</v>
+        <v>0.369278559906442</v>
       </c>
       <c r="E232" t="n">
         <v>44</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.1302127957058763</v>
+        <v>0.2600310936376015</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.1712480684207201</v>
+        <v>0.3516309611882882</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.04399584394491587</v>
+        <v>0.3883379451741101</v>
       </c>
       <c r="E233" t="n">
         <v>44</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.2527429253488819</v>
+        <v>0.2534029073613794</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.1463043052699483</v>
+        <v>0.4012920539874439</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1210715865007247</v>
+        <v>0.3453050386511766</v>
       </c>
       <c r="E234" t="n">
         <v>44</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.1251213191294845</v>
+        <v>0.2847792142974236</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.1077924935733711</v>
+        <v>0.3593317325227611</v>
       </c>
       <c r="D235" t="n">
-        <v>0.01292023688475066</v>
+        <v>0.3558890531798154</v>
       </c>
       <c r="E235" t="n">
         <v>44</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2789678372729764</v>
+        <v>0.2507321014128202</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.1434502203817123</v>
+        <v>0.4098799385778653</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1446918943735987</v>
+        <v>0.3393879600093144</v>
       </c>
       <c r="E236" t="n">
         <v>44</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.02091838745579075</v>
+        <v>0.4649729111838584</v>
       </c>
       <c r="C237" t="n">
-        <v>0.7622736158829151</v>
+        <v>0.437312950367984</v>
       </c>
       <c r="D237" t="n">
-        <v>0.514417538790904</v>
+        <v>0.09771413844815785</v>
       </c>
       <c r="E237" t="n">
         <v>44</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.1935497832059089</v>
+        <v>0.2678355781771649</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.1292553938040507</v>
+        <v>0.3966944668190903</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1470275782388082</v>
+        <v>0.3354699550037447</v>
       </c>
       <c r="E238" t="n">
         <v>44</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.2355777268172618</v>
+        <v>0.1890264828309811</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.3628374331661305</v>
+        <v>0.3536115476971917</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1124986369125641</v>
+        <v>0.4573619694718269</v>
       </c>
       <c r="E239" t="n">
         <v>44</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.2005391129483884</v>
+        <v>0.2615282753546629</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.1445383685320966</v>
+        <v>0.3798944325349208</v>
       </c>
       <c r="D240" t="n">
-        <v>0.05653206528085325</v>
+        <v>0.3585772921104161</v>
       </c>
       <c r="E240" t="n">
         <v>44</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.72994306307208</v>
+        <v>0.2465144036528769</v>
       </c>
       <c r="C241" t="n">
-        <v>0.6726674823831242</v>
+        <v>0.6555978876451534</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8349979746128859</v>
+        <v>0.09788770870196981</v>
       </c>
       <c r="E241" t="n">
         <v>44</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5428871804742049</v>
+        <v>0.2811696885102252</v>
       </c>
       <c r="C242" t="n">
-        <v>0.3044015696360682</v>
+        <v>0.5641033932503903</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6321111953318238</v>
+        <v>0.1547269182393844</v>
       </c>
       <c r="E242" t="n">
         <v>44</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.08888777557177566</v>
+        <v>0.3264772318613514</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.00155514289839212</v>
+        <v>0.3576032722989306</v>
       </c>
       <c r="D243" t="n">
-        <v>0.03009655957219858</v>
+        <v>0.3159194958397182</v>
       </c>
       <c r="E243" t="n">
         <v>44</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.011972102616849</v>
+        <v>0.7872988509767376</v>
       </c>
       <c r="C244" t="n">
-        <v>1.092642440471872</v>
+        <v>0.174279615965648</v>
       </c>
       <c r="D244" t="n">
-        <v>0.539311059771043</v>
+        <v>0.03842153305761419</v>
       </c>
       <c r="E244" t="n">
         <v>44</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1599833567158155</v>
+        <v>0.5283026695961283</v>
       </c>
       <c r="C245" t="n">
-        <v>0.9346889774621996</v>
+        <v>0.4153260121330076</v>
       </c>
       <c r="D245" t="n">
-        <v>0.9128053665345336</v>
+        <v>0.05637131827086418</v>
       </c>
       <c r="E245" t="n">
         <v>44</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.152875896492634</v>
+        <v>0.2675775859799145</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.1424991440441976</v>
+        <v>0.3643537587219299</v>
       </c>
       <c r="D246" t="n">
-        <v>0.008452412569493488</v>
+        <v>0.3680686552981556</v>
       </c>
       <c r="E246" t="n">
         <v>44</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.4335229686727623</v>
+        <v>0.2749818992250284</v>
       </c>
       <c r="C247" t="n">
-        <v>0.07181390127270457</v>
+        <v>0.5025699531439687</v>
       </c>
       <c r="D247" t="n">
-        <v>0.4752883451525038</v>
+        <v>0.2224481476310029</v>
       </c>
       <c r="E247" t="n">
         <v>44</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.09393273784066603</v>
+        <v>0.4169148105925805</v>
       </c>
       <c r="C248" t="n">
-        <v>0.38947203588272</v>
+        <v>0.40685295491732</v>
       </c>
       <c r="D248" t="n">
-        <v>0.2135708090558056</v>
+        <v>0.1762322344900993</v>
       </c>
       <c r="E248" t="n">
         <v>44</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.2502255813604995</v>
+        <v>0.3476357035413914</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2129849548053203</v>
+        <v>0.5531429224778026</v>
       </c>
       <c r="D249" t="n">
-        <v>1.427366634174327</v>
+        <v>0.09922137398080601</v>
       </c>
       <c r="E249" t="n">
         <v>45</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.09219516337609177</v>
+        <v>0.3476569734852571</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.02388259371238632</v>
+        <v>0.3060969420075266</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.1104682112410465</v>
+        <v>0.3462460845072159</v>
       </c>
       <c r="E250" t="n">
         <v>45</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.4328745713221979</v>
+        <v>0.3245576595474276</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6302817070188096</v>
+        <v>0.6246829752785781</v>
       </c>
       <c r="D251" t="n">
-        <v>1.4890477945739</v>
+        <v>0.05075936517399415</v>
       </c>
       <c r="E251" t="n">
         <v>45</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.032583607736347</v>
+        <v>0.7972670460661523</v>
       </c>
       <c r="C252" t="n">
-        <v>1.242712974601352</v>
+        <v>0.1768666538519139</v>
       </c>
       <c r="D252" t="n">
-        <v>0.8530440435732364</v>
+        <v>0.02586630008193383</v>
       </c>
       <c r="E252" t="n">
         <v>45</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.09048356173629578</v>
+        <v>0.436998953496279</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6783850283369683</v>
+        <v>0.4668294193440494</v>
       </c>
       <c r="D253" t="n">
-        <v>0.6532567590196622</v>
+        <v>0.09617162715967169</v>
       </c>
       <c r="E253" t="n">
         <v>45</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.831085920021615</v>
+        <v>0.2614514306359324</v>
       </c>
       <c r="C254" t="n">
-        <v>0.5369134895887797</v>
+        <v>0.5432050416658373</v>
       </c>
       <c r="D254" t="n">
-        <v>0.12586814580418</v>
+        <v>0.1953435276982303</v>
       </c>
       <c r="E254" t="n">
         <v>45</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.6311807595323771</v>
+        <v>0.1548176146795034</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.3492535548625451</v>
+        <v>0.4848260935152394</v>
       </c>
       <c r="D255" t="n">
-        <v>0.2275903664241807</v>
+        <v>0.3603562918052572</v>
       </c>
       <c r="E255" t="n">
         <v>45</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.7926544023097735</v>
+        <v>0.7232177901325935</v>
       </c>
       <c r="C256" t="n">
-        <v>0.7681735678894983</v>
+        <v>0.1892949878796598</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.08830072992662276</v>
+        <v>0.08748722198774676</v>
       </c>
       <c r="E256" t="n">
         <v>45</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4647944731119103</v>
+        <v>0.610640288292767</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5183498498909742</v>
+        <v>0.3282187054500906</v>
       </c>
       <c r="D257" t="n">
-        <v>1.623695846800164</v>
+        <v>0.06114100625714239</v>
       </c>
       <c r="E257" t="n">
         <v>45</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.3673028645325462</v>
+        <v>0.562049018194369</v>
       </c>
       <c r="C258" t="n">
-        <v>0.4756944762550401</v>
+        <v>0.2912007906171339</v>
       </c>
       <c r="D258" t="n">
-        <v>0.128394033285321</v>
+        <v>0.1467501911884967</v>
       </c>
       <c r="E258" t="n">
         <v>45</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5293834097271928</v>
+        <v>0.3986747474592832</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.08926314785707867</v>
+        <v>0.2998559261978241</v>
       </c>
       <c r="D259" t="n">
-        <v>0.3906062461124164</v>
+        <v>0.3014693263428925</v>
       </c>
       <c r="E259" t="n">
         <v>45</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.1452198620375796</v>
+        <v>0.3422790124803814</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0970227793106217</v>
+        <v>0.4530378148519008</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5640887460857323</v>
+        <v>0.2046831726677178</v>
       </c>
       <c r="E260" t="n">
         <v>45</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.01892069087140644</v>
+        <v>0.4616648472641579</v>
       </c>
       <c r="C261" t="n">
-        <v>0.554029733984774</v>
+        <v>0.4278444257356173</v>
       </c>
       <c r="D261" t="n">
-        <v>0.5945981272689587</v>
+        <v>0.1104907270002249</v>
       </c>
       <c r="E261" t="n">
         <v>45</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.03764138890197058</v>
+        <v>0.2999428624613552</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.09647731769260648</v>
+        <v>0.3346786459456536</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.05716395269541028</v>
+        <v>0.365378491592991</v>
       </c>
       <c r="E262" t="n">
         <v>45</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.8866013240588804</v>
+        <v>0.2074876157675704</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6939594343335764</v>
+        <v>0.7099285122618669</v>
       </c>
       <c r="D263" t="n">
-        <v>1.014894635472074</v>
+        <v>0.08258387197056294</v>
       </c>
       <c r="E263" t="n">
         <v>45</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.9415332524578464</v>
+        <v>0.574894755700466</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1877758946437821</v>
+        <v>0.1599976135432613</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.2750424929876608</v>
+        <v>0.2651076307562731</v>
       </c>
       <c r="E264" t="n">
         <v>45</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4717402512877898</v>
+        <v>0.6412457787808338</v>
       </c>
       <c r="C265" t="n">
-        <v>1.118349655623112</v>
+        <v>0.2940578590355981</v>
       </c>
       <c r="D265" t="n">
-        <v>0.3654188901985184</v>
+        <v>0.06469636218356828</v>
       </c>
       <c r="E265" t="n">
         <v>45</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.5837075572613891</v>
+        <v>0.2765861170039609</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2781538232592232</v>
+        <v>0.5314477386746941</v>
       </c>
       <c r="D266" t="n">
-        <v>0.3935277639988569</v>
+        <v>0.1919661443213453</v>
       </c>
       <c r="E266" t="n">
         <v>45</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.163668220345335</v>
+        <v>0.2648541865933098</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.1463264597709427</v>
+        <v>0.3675753005323843</v>
       </c>
       <c r="D267" t="n">
-        <v>0.01659366972497511</v>
+        <v>0.3675705128743056</v>
       </c>
       <c r="E267" t="n">
         <v>45</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.489957365828197</v>
+        <v>0.8097109531545803</v>
       </c>
       <c r="C268" t="n">
-        <v>0.6024903469393867</v>
+        <v>0.08884865142469239</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2486455457862526</v>
+        <v>0.1014403954207274</v>
       </c>
       <c r="E268" t="n">
         <v>45</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.5943724882826372</v>
+        <v>0.2723563491388262</v>
       </c>
       <c r="C269" t="n">
-        <v>0.4260340658135176</v>
+        <v>0.6217751265315143</v>
       </c>
       <c r="D269" t="n">
-        <v>0.9341644259750997</v>
+        <v>0.1058685243296596</v>
       </c>
       <c r="E269" t="n">
         <v>45</v>
